--- a/biology/Médecine/1387_en_santé_et_médecine/1387_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1387_en_santé_et_médecine/1387_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1387 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le pape Clément VII retire à l'évêque de Paris son autorité sur l'hôpital des Quinze-Vingts « pour en confier la juridiction spirituelle à l'aumônier du roi[1] ».
-Le podestà de Florence « s'engage, selon les statuts de l'université […], à fournir deux cadavres par an aux étudiants en médecine[2] ».
-Régnault Fréron (fl. 1379-1395) est nommé Premier médecin du roi Charles VI ; il sera chassé de la cour en 1395 pour n'avoir pu contrôler un nouvel accès de folie de son patient[3].
-Jean de Tournemire (1330-apr. 1390), professeur à Montpellier, médecin de Grégoire XI, « découvre que sa fille Marguerite, âgée de dix-huit ans, est atteinte d'un cancer du sein dont il fourni[ra, en 1390,] une description clinique détaillée lors du procès en canonisation du bienheureux Pierre de Luxembourg[4] ».
-« En 1387, il semble peu probable qu'il y ait plus de vingt docteurs en médecine en Angleterre[6]. »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le pape Clément VII retire à l'évêque de Paris son autorité sur l'hôpital des Quinze-Vingts « pour en confier la juridiction spirituelle à l'aumônier du roi ».
+Le podestà de Florence « s'engage, selon les statuts de l'université […], à fournir deux cadavres par an aux étudiants en médecine ».
+Régnault Fréron (fl. 1379-1395) est nommé Premier médecin du roi Charles VI ; il sera chassé de la cour en 1395 pour n'avoir pu contrôler un nouvel accès de folie de son patient.
+Jean de Tournemire (1330-apr. 1390), professeur à Montpellier, médecin de Grégoire XI, « découvre que sa fille Marguerite, âgée de dix-huit ans, est atteinte d'un cancer du sein dont il fourni[ra, en 1390,] une description clinique détaillée lors du procès en canonisation du bienheureux Pierre de Luxembourg ».
+« En 1387, il semble peu probable qu'il y ait plus de vingt docteurs en médecine en Angleterre. »</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation à Bruges, par Louis Schuwinck et son épouse, d'un hospice « institué pour de pauvres orfèvres, hommes ou femmes[7] ».
-Fondation par Ser Jacobus de Sorgo, à Dubrovnik, alors capitale de la république de Raguse, d'un hôpital Saint-Jacques, dit de puteis parce que situé près des puits[8].
-Un hospice de Saint-Jean administré par la commune est attesté à Ravecchia (it), ancien hameau de Bellinzone, dans le Tessin[9].
-Un hôpital Saint-Jacques est mentionné à Montesquieu, dans le Lauragais[10].
-Un hôpital Saint-Jacques est attesté à Salviac, dans le Quercy[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation à Bruges, par Louis Schuwinck et son épouse, d'un hospice « institué pour de pauvres orfèvres, hommes ou femmes ».
+Fondation par Ser Jacobus de Sorgo, à Dubrovnik, alors capitale de la république de Raguse, d'un hôpital Saint-Jacques, dit de puteis parce que situé près des puits.
+Un hospice de Saint-Jean administré par la commune est attesté à Ravecchia (it), ancien hameau de Bellinzone, dans le Tessin.
+Un hôpital Saint-Jacques est mentionné à Montesquieu, dans le Lauragais.
+Un hôpital Saint-Jacques est attesté à Salviac, dans le Quercy.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bonsenhor Salomon, médecin juif de Narbonne, traduit du latin en hébreu le Lilium medicine de Bernard de Gordon[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bonsenhor Salomon, médecin juif de Narbonne, traduit du latin en hébreu le Lilium medicine de Bernard de Gordon.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,15 +627,17 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. Blaise de Forlivio, « médecin italien de la cour pontificale d'Avignon, qui donn[e] ses soins au cardinal Pierre de Luxembourg, dans sa dernière maladie[13] ».
-Fl. Gilles Husseneti, « maître ès arts et écolier en médecine en quatrième année d'audition à l'université de Paris[13] ».
-1379-1387 : fl. Aubry de Pratellis, docteur en médecine à Paris[13].
-1383-1387 : fl. Gervais Le Conte, chirurgien du roi Charles VI et du duc de Bourgogne[3].
-Vers 1387-1390 : fl. Abraham, médecin juif, accusé d'avoir, « par ses potions et ses médecines, […] rendu dément et enragé un Avignonnais[13] ».
-1387-1403 : fl.  Georges de Castro et Barthélemy Ohes, respectivement professeur et étudiant à la faculté de médecine de Paris[13].
-1387-1416 : fl. Jean Du Martroy, édudiant puis professeur à la faculté de médecine de Paris[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. Blaise de Forlivio, « médecin italien de la cour pontificale d'Avignon, qui donn[e] ses soins au cardinal Pierre de Luxembourg, dans sa dernière maladie ».
+Fl. Gilles Husseneti, « maître ès arts et écolier en médecine en quatrième année d'audition à l'université de Paris ».
+1379-1387 : fl. Aubry de Pratellis, docteur en médecine à Paris.
+1383-1387 : fl. Gervais Le Conte, chirurgien du roi Charles VI et du duc de Bourgogne.
+Vers 1387-1390 : fl. Abraham, médecin juif, accusé d'avoir, « par ses potions et ses médecines, […] rendu dément et enragé un Avignonnais ».
+1387-1403 : fl.  Georges de Castro et Barthélemy Ohes, respectivement professeur et étudiant à la faculté de médecine de Paris.
+1387-1416 : fl. Jean Du Martroy, édudiant puis professeur à la faculté de médecine de Paris.</t>
         </is>
       </c>
     </row>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Gaëtan de Tiène (mort en 1465 ?), originaire de Vicence en Italie, professeur de philosophie et de médecine à Padoue[14].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gaëtan de Tiène (mort en 1465 ?), originaire de Vicence en Italie, professeur de philosophie et de médecine à Padoue.</t>
         </is>
       </c>
     </row>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1387_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1387_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,9 +697,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Thomas de Pisan (né vers 1310), médecin et astrologue italien, conseiller de la Sérénissime puis du roi de France Charles V, père de Christine de Pisan[15].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Thomas de Pisan (né vers 1310), médecin et astrologue italien, conseiller de la Sérénissime puis du roi de France Charles V, père de Christine de Pisan.</t>
         </is>
       </c>
     </row>
